--- a/panther.xlsx
+++ b/panther.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="brain" sheetId="1" r:id="rId1"/>
+    <sheet name="keep" sheetId="2" r:id="rId2"/>
+    <sheet name="testes" sheetId="3" r:id="rId3"/>
+    <sheet name="kidney" sheetId="4" r:id="rId4"/>
+    <sheet name="liver" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,36 +23,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
   <si>
-    <t>transporter activity (GO:0005215)</t>
+    <t>extracellular matrix protein (PC00102)</t>
   </si>
   <si>
-    <t>translation regulator activity (GO:0045182)</t>
+    <t>protease (PC00190)</t>
   </si>
   <si>
-    <t>protein binding transcription factor activity (GO:0000988)</t>
+    <t>cytoskeletal protein (PC00085)</t>
   </si>
   <si>
-    <t>enzyme regulator activity (GO:0030234)</t>
+    <t>transporter (PC00227)</t>
   </si>
   <si>
-    <t>catalytic activity (GO:0003824)</t>
+    <t>transmembrane receptor regulatory/adaptor protein (PC00226)</t>
   </si>
   <si>
-    <t>receptor activity (GO:0004872)</t>
+    <t>transferase (PC00220)</t>
   </si>
   <si>
-    <t>nucleic acid binding transcription factor activity (GO:0001071)</t>
+    <t>oxidoreductase (PC00176)</t>
   </si>
   <si>
-    <t>antioxidant activity (GO:0016209)</t>
+    <t>lyase (PC00144)</t>
   </si>
   <si>
-    <t>structural molecule activity (GO:0005198)</t>
+    <t>cell adhesion molecule (PC00069)</t>
   </si>
   <si>
-    <t>binding (GO:0005488)</t>
+    <t>ligase (PC00142)</t>
+  </si>
+  <si>
+    <t>nucleic acid binding (PC00171)</t>
+  </si>
+  <si>
+    <t>signaling molecule (PC00207)</t>
+  </si>
+  <si>
+    <t>enzyme modulator (PC00095)</t>
+  </si>
+  <si>
+    <t>viral protein (PC00237)</t>
+  </si>
+  <si>
+    <t>calcium-binding protein (PC00060)</t>
+  </si>
+  <si>
+    <t>defense/immunity protein (PC00090)</t>
+  </si>
+  <si>
+    <t>hydrolase (PC00121)</t>
+  </si>
+  <si>
+    <t>transfer/carrier protein (PC00219)</t>
+  </si>
+  <si>
+    <t>membrane traffic protein (PC00150)</t>
+  </si>
+  <si>
+    <t>phosphatase (PC00181)</t>
+  </si>
+  <si>
+    <t>transcription factor (PC00218)</t>
+  </si>
+  <si>
+    <t>chaperone (PC00072)</t>
+  </si>
+  <si>
+    <t>cell junction protein (PC00070)</t>
+  </si>
+  <si>
+    <t>surfactant (PC00212)</t>
+  </si>
+  <si>
+    <t>structural protein (PC00211)</t>
+  </si>
+  <si>
+    <t>kinase (PC00137)</t>
+  </si>
+  <si>
+    <t>storage protein (PC00210)</t>
+  </si>
+  <si>
+    <t>receptor (PC00197)</t>
+  </si>
+  <si>
+    <t>isomerase (PC00135)</t>
   </si>
 </sst>
 </file>
@@ -418,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -437,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>828</v>
+        <v>335</v>
       </c>
       <c r="D1" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E1" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -454,13 +515,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>384</v>
       </c>
       <c r="D3" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +532,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>152</v>
+        <v>621</v>
       </c>
       <c r="D5" s="1">
-        <v>1.2E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -488,13 +549,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="D7" s="1">
-        <v>6.2E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>5.8999999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -505,13 +566,13 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>4252</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
-        <v>0.33</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>0.316</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -522,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>1002</v>
+        <v>1079</v>
       </c>
       <c r="D11" s="1">
-        <v>7.8E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E11" s="1">
-        <v>7.3999999999999996E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -539,13 +600,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1180</v>
+        <v>484</v>
       </c>
       <c r="D13" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -556,13 +617,13 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1">
-        <v>2E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>2E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -573,13 +634,13 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>892</v>
+        <v>347</v>
       </c>
       <c r="D17" s="1">
-        <v>6.9000000000000006E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -590,13 +651,2400 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>4221</v>
+        <v>381</v>
       </c>
       <c r="D19" s="1">
-        <v>0.32800000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E19" s="1">
-        <v>0.313</v>
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1866</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>607</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1089</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>278</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>301</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1188</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>302</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>336</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>265</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>1195</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>185</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>119</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>93</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>459</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>1024</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <v>130</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>404</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>492</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>733</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>981</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1214</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>580</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>454</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>443</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>2161</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>790</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1253</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>333</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>443</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1436</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>382</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>355</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>295</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>1440</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>204</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>150</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>43</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>129</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>512</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>1338</v>
+      </c>
+      <c r="D55" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <v>149</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>289</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>378</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>552</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>731</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1045</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>505</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>148</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>280</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>387</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1840</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>552</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1016</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>256</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>250</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1180</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>318</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>303</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>251</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>1164</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>185</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>109</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>28</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>83</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>428</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>14</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>814</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <v>130</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>355</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>458</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>699</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>871</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1159</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>544</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>165</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>414</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>428</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>2088</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>703</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1198</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>310</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>396</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1371</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>336</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>340</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>291</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>1347</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>201</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>134</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>114</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>497</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>1157</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <v>136</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>230</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>378</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>524</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>639</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1042</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>488</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>151</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>260</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>376</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1789</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>553</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>981</v>
+      </c>
+      <c r="D25" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>249</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>286</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1150</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>299</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>294</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>229</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>1076</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>183</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>94</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>76</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>426</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>788</v>
+      </c>
+      <c r="D55" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <v>135</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
